--- a/data/trans_orig/P36B03-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B03-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1891069-549F-48BE-A2DD-1FA16EBF0661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F9AEF12-246D-4528-A0A8-DCA3882755C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AE620CC0-15D9-40F7-A3F8-C2A22B671926}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{99D01680-F508-45CE-973D-82BD305D8BD9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="929">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="940">
   <si>
     <t>Población según la frecuencia de consumo de pan, cereales en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -1103,7 +1103,94 @@
     <t>Población según la frecuencia de consumo de pan, cereales en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
   </si>
   <si>
     <t>1,14%</t>
@@ -1214,9 +1301,6 @@
     <t>1,04%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
     <t>0,88%</t>
   </si>
   <si>
@@ -1235,9 +1319,6 @@
     <t>5,76%</t>
   </si>
   <si>
-    <t>5,1%</t>
-  </si>
-  <si>
     <t>3,0%</t>
   </si>
   <si>
@@ -1280,1552 +1361,1504 @@
     <t>91,61%</t>
   </si>
   <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de pan, cereales en 2016 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de pan, cereales en 2023 (Tasa respuesta: 99,93%)</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
     <t>1,85%</t>
   </si>
   <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de pan, cereales en 2016 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de pan, cereales en 2023 (Tasa respuesta: 99,93%)</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
   </si>
   <si>
     <t>4,06%</t>
   </si>
   <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
     <t>10,27%</t>
   </si>
   <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
   </si>
 </sst>
 </file>
@@ -3237,7 +3270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6983463C-8C8C-439D-B1A5-9858FEC04426}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F9E6ECF-D9B8-4207-B89C-B0B66E5758F3}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -5924,7 +5957,7 @@
         <v>77</v>
       </c>
       <c r="D54" s="7">
-        <v>81401</v>
+        <v>81400</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>329</v>
@@ -6026,7 +6059,7 @@
         <v>2897</v>
       </c>
       <c r="D56" s="7">
-        <v>2957094</v>
+        <v>2957093</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>343</v>
@@ -6041,7 +6074,7 @@
         <v>2863</v>
       </c>
       <c r="I56" s="7">
-        <v>2936592</v>
+        <v>2936591</v>
       </c>
       <c r="J56" s="7" t="s">
         <v>346</v>
@@ -6077,7 +6110,7 @@
         <v>3214</v>
       </c>
       <c r="D57" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>58</v>
@@ -6092,7 +6125,7 @@
         <v>3296</v>
       </c>
       <c r="I57" s="7">
-        <v>3378138</v>
+        <v>3378137</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>58</v>
@@ -6145,7 +6178,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF911CB-A700-41DD-AA87-9AEB97FDA90B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD50CB8-9B4C-4481-86E4-8D8370FB3516}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6263,43 +6296,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="D4" s="7">
+        <v>10153</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>354</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="I4" s="7">
+        <v>7840</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="N4" s="7">
+        <v>17993</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>354</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6308,43 +6347,49 @@
         <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2026</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>354</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>981</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>354</v>
+        <v>263</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>354</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>3007</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>354</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6353,43 +6398,49 @@
         <v>28</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="D6" s="7">
+        <v>4576</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>354</v>
+        <v>119</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>354</v>
+        <v>267</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>354</v>
+        <v>307</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="I6" s="7">
+        <v>17358</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>354</v>
+        <v>270</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>354</v>
+        <v>121</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="N6" s="7">
+        <v>21934</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6398,43 +6449,49 @@
         <v>38</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="D7" s="7">
+        <v>11090</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>354</v>
+        <v>81</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="I7" s="7">
+        <v>14171</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>354</v>
+        <v>313</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>354</v>
+        <v>93</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="N7" s="7">
+        <v>25261</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>354</v>
+        <v>269</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>354</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6443,43 +6500,49 @@
         <v>48</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="D8" s="7">
+        <v>266893</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>354</v>
+        <v>375</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>354</v>
+        <v>376</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>220</v>
+      </c>
+      <c r="I8" s="7">
+        <v>246894</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7"/>
+        <v>476</v>
+      </c>
+      <c r="N8" s="7">
+        <v>513788</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>354</v>
+        <v>381</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>354</v>
+        <v>382</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>354</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6488,43 +6551,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D9" s="7">
+        <v>294738</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>354</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>354</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>354</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I9" s="7">
+        <v>287245</v>
+      </c>
       <c r="J9" s="7" t="s">
-        <v>354</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>354</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>354</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N9" s="7">
+        <v>581983</v>
+      </c>
       <c r="O9" s="7" t="s">
-        <v>354</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>354</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>354</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6541,13 +6610,13 @@
         <v>5780</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>356</v>
+        <v>385</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>357</v>
+        <v>386</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -6556,13 +6625,13 @@
         <v>3981</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>358</v>
+        <v>387</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>359</v>
+        <v>388</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -6571,13 +6640,13 @@
         <v>9762</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>362</v>
+        <v>391</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6643,13 +6712,13 @@
         <v>10836</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>363</v>
+        <v>392</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -6661,7 +6730,7 @@
         <v>185</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>307</v>
@@ -6673,13 +6742,13 @@
         <v>21053</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>366</v>
+        <v>395</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>327</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>367</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6694,13 +6763,13 @@
         <v>29282</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>368</v>
+        <v>397</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>369</v>
+        <v>398</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>370</v>
+        <v>399</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -6709,13 +6778,13 @@
         <v>26088</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>371</v>
+        <v>400</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>372</v>
+        <v>401</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>373</v>
+        <v>402</v>
       </c>
       <c r="M13" s="7">
         <v>50</v>
@@ -6724,13 +6793,13 @@
         <v>55370</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>374</v>
+        <v>403</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>375</v>
+        <v>404</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>376</v>
+        <v>405</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6745,13 +6814,13 @@
         <v>459628</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>377</v>
+        <v>406</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>378</v>
+        <v>407</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>379</v>
+        <v>408</v>
       </c>
       <c r="H14" s="7">
         <v>442</v>
@@ -6760,13 +6829,13 @@
         <v>482487</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>381</v>
+        <v>410</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>382</v>
+        <v>411</v>
       </c>
       <c r="M14" s="7">
         <v>870</v>
@@ -6775,13 +6844,13 @@
         <v>942115</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>383</v>
+        <v>412</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>98</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>384</v>
+        <v>413</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6849,7 +6918,7 @@
         <v>930</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>385</v>
+        <v>414</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
@@ -6864,13 +6933,13 @@
         <v>6106</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>61</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>387</v>
+        <v>416</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -6882,10 +6951,10 @@
         <v>67</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>388</v>
+        <v>417</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>389</v>
+        <v>418</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6930,7 +6999,7 @@
         <v>6916</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>390</v>
+        <v>419</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>116</v>
@@ -6951,10 +7020,10 @@
         <v>5921</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>391</v>
+        <v>365</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>86</v>
@@ -6966,13 +7035,13 @@
         <v>20886</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>393</v>
+        <v>421</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>394</v>
+        <v>422</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>395</v>
+        <v>423</v>
       </c>
       <c r="M18" s="7">
         <v>25</v>
@@ -6981,13 +7050,13 @@
         <v>26807</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>375</v>
+        <v>404</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>396</v>
+        <v>424</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>397</v>
+        <v>425</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7002,13 +7071,13 @@
         <v>16532</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>398</v>
+        <v>359</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>400</v>
+        <v>427</v>
       </c>
       <c r="H19" s="7">
         <v>16</v>
@@ -7020,10 +7089,10 @@
         <v>310</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>401</v>
+        <v>428</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>402</v>
+        <v>429</v>
       </c>
       <c r="M19" s="7">
         <v>32</v>
@@ -7032,7 +7101,7 @@
         <v>32723</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>403</v>
+        <v>430</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>238</v>
@@ -7053,13 +7122,13 @@
         <v>299665</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>404</v>
+        <v>431</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>405</v>
+        <v>432</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>406</v>
+        <v>433</v>
       </c>
       <c r="H20" s="7">
         <v>271</v>
@@ -7068,13 +7137,13 @@
         <v>291920</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>407</v>
+        <v>434</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>409</v>
+        <v>436</v>
       </c>
       <c r="M20" s="7">
         <v>566</v>
@@ -7083,13 +7152,13 @@
         <v>591585</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>410</v>
+        <v>437</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>411</v>
+        <v>438</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>412</v>
+        <v>439</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7151,49 +7220,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>10153</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>196</v>
+        <v>12</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>325</v>
+        <v>145</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H22" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I22" s="7">
-        <v>12481</v>
+        <v>4640</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>413</v>
+        <v>265</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>225</v>
+        <v>440</v>
       </c>
       <c r="M22" s="7">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="N22" s="7">
-        <v>22634</v>
+        <v>4640</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>226</v>
+        <v>267</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>414</v>
+        <v>441</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>415</v>
+        <v>442</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7202,49 +7271,49 @@
         <v>19</v>
       </c>
       <c r="C23" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>3401</v>
+        <v>1375</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>416</v>
+        <v>443</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>417</v>
+        <v>444</v>
       </c>
       <c r="H23" s="7">
+        <v>5</v>
+      </c>
+      <c r="I23" s="7">
+        <v>5727</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="M23" s="7">
         <v>6</v>
       </c>
-      <c r="I23" s="7">
-        <v>6708</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="M23" s="7">
-        <v>8</v>
-      </c>
       <c r="N23" s="7">
-        <v>10109</v>
+        <v>7102</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>328</v>
+        <v>64</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>11</v>
+        <v>443</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>261</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7253,49 +7322,49 @@
         <v>28</v>
       </c>
       <c r="C24" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D24" s="7">
-        <v>9646</v>
+        <v>5070</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>418</v>
+        <v>107</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>262</v>
+        <v>146</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>153</v>
+        <v>307</v>
       </c>
       <c r="H24" s="7">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="I24" s="7">
-        <v>24159</v>
+        <v>6801</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>419</v>
+        <v>446</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>420</v>
+        <v>219</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="M24" s="7">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="N24" s="7">
-        <v>33805</v>
+        <v>11871</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>422</v>
+        <v>268</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>92</v>
+        <v>448</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7304,49 +7373,49 @@
         <v>38</v>
       </c>
       <c r="C25" s="7">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D25" s="7">
-        <v>24938</v>
+        <v>13848</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>364</v>
+        <v>449</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>396</v>
+        <v>115</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>281</v>
+        <v>450</v>
       </c>
       <c r="H25" s="7">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I25" s="7">
-        <v>25533</v>
+        <v>11361</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>423</v>
+        <v>131</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>424</v>
+        <v>30</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="M25" s="7">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="N25" s="7">
-        <v>50470</v>
+        <v>25209</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>204</v>
+        <v>452</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>426</v>
+        <v>453</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>233</v>
+        <v>451</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7355,49 +7424,49 @@
         <v>48</v>
       </c>
       <c r="C26" s="7">
-        <v>582</v>
+        <v>326</v>
       </c>
       <c r="D26" s="7">
-        <v>620582</v>
+        <v>353689</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>427</v>
+        <v>454</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="H26" s="7">
-        <v>565</v>
+        <v>345</v>
       </c>
       <c r="I26" s="7">
-        <v>607316</v>
+        <v>360421</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>432</v>
+        <v>458</v>
       </c>
       <c r="M26" s="7">
-        <v>1147</v>
+        <v>671</v>
       </c>
       <c r="N26" s="7">
-        <v>1227898</v>
+        <v>714110</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>433</v>
+        <v>459</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>434</v>
+        <v>460</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>435</v>
+        <v>461</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7406,10 +7475,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D27" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>58</v>
@@ -7421,10 +7490,10 @@
         <v>58</v>
       </c>
       <c r="H27" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I27" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>58</v>
@@ -7436,10 +7505,10 @@
         <v>58</v>
       </c>
       <c r="M27" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N27" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>58</v>
@@ -7471,7 +7540,7 @@
         <v>23</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>436</v>
+        <v>462</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -7480,7 +7549,7 @@
         <v>973</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>388</v>
+        <v>417</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>12</v>
@@ -7495,13 +7564,13 @@
         <v>5024</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>193</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>438</v>
+        <v>464</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7516,7 +7585,7 @@
         <v>1014</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>439</v>
+        <v>465</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>12</v>
@@ -7537,7 +7606,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -7549,7 +7618,7 @@
         <v>326</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>441</v>
+        <v>467</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>63</v>
@@ -7573,7 +7642,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>442</v>
+        <v>362</v>
       </c>
       <c r="H30" s="7">
         <v>6</v>
@@ -7582,13 +7651,13 @@
         <v>6697</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>443</v>
+        <v>468</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>445</v>
+        <v>470</v>
       </c>
       <c r="M30" s="7">
         <v>8</v>
@@ -7600,10 +7669,10 @@
         <v>303</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>446</v>
+        <v>471</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7618,13 +7687,13 @@
         <v>2073</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>447</v>
+        <v>472</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>448</v>
+        <v>473</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -7639,7 +7708,7 @@
         <v>23</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>449</v>
+        <v>474</v>
       </c>
       <c r="M31" s="7">
         <v>6</v>
@@ -7648,13 +7717,13 @@
         <v>6212</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>450</v>
+        <v>364</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>448</v>
+        <v>473</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7669,13 +7738,13 @@
         <v>201930</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>451</v>
+        <v>475</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>452</v>
+        <v>476</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="H32" s="7">
         <v>199</v>
@@ -7684,13 +7753,13 @@
         <v>205947</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>454</v>
+        <v>478</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>215</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="M32" s="7">
         <v>386</v>
@@ -7699,13 +7768,13 @@
         <v>407877</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>457</v>
+        <v>481</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>458</v>
+        <v>482</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7779,7 +7848,7 @@
         <v>145</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>459</v>
+        <v>483</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -7794,7 +7863,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>424</v>
+        <v>484</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -7803,7 +7872,7 @@
         <v>1960</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>460</v>
+        <v>485</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>12</v>
@@ -7830,7 +7899,7 @@
         <v>145</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>459</v>
+        <v>483</v>
       </c>
       <c r="H35" s="7">
         <v>4</v>
@@ -7854,13 +7923,13 @@
         <v>4308</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>461</v>
+        <v>486</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>441</v>
+        <v>467</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>462</v>
+        <v>487</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7875,13 +7944,13 @@
         <v>8694</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>463</v>
+        <v>363</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>464</v>
+        <v>488</v>
       </c>
       <c r="H36" s="7">
         <v>14</v>
@@ -7890,13 +7959,13 @@
         <v>14699</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>465</v>
+        <v>489</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>467</v>
+        <v>490</v>
       </c>
       <c r="M36" s="7">
         <v>23</v>
@@ -7905,13 +7974,13 @@
         <v>23393</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>468</v>
+        <v>491</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>469</v>
+        <v>357</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>470</v>
+        <v>450</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7926,13 +7995,13 @@
         <v>5013</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>391</v>
+        <v>365</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>325</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>471</v>
+        <v>370</v>
       </c>
       <c r="H37" s="7">
         <v>20</v>
@@ -7941,13 +8010,13 @@
         <v>21121</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>473</v>
+        <v>493</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>474</v>
+        <v>494</v>
       </c>
       <c r="M37" s="7">
         <v>25</v>
@@ -7956,13 +8025,13 @@
         <v>26134</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>475</v>
+        <v>495</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>134</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>476</v>
+        <v>496</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7977,13 +8046,13 @@
         <v>260275</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>406</v>
+        <v>433</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>477</v>
+        <v>497</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>478</v>
+        <v>498</v>
       </c>
       <c r="H38" s="7">
         <v>229</v>
@@ -7992,13 +8061,13 @@
         <v>237942</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="M38" s="7">
         <v>476</v>
@@ -8007,13 +8076,13 @@
         <v>498217</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8111,10 +8180,10 @@
         <v>2915</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>441</v>
+        <v>467</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>485</v>
+        <v>505</v>
       </c>
       <c r="Q40" s="7" t="s">
         <v>72</v>
@@ -8132,13 +8201,13 @@
         <v>6927</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>486</v>
+        <v>506</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>116</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>487</v>
+        <v>507</v>
       </c>
       <c r="H41" s="7">
         <v>13</v>
@@ -8147,13 +8216,13 @@
         <v>14730</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>488</v>
+        <v>508</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>69</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>489</v>
+        <v>509</v>
       </c>
       <c r="M41" s="7">
         <v>20</v>
@@ -8165,10 +8234,10 @@
         <v>13</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>447</v>
+        <v>472</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>490</v>
+        <v>510</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -8183,13 +8252,13 @@
         <v>19447</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>491</v>
+        <v>511</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>473</v>
+        <v>493</v>
       </c>
       <c r="H42" s="7">
         <v>36</v>
@@ -8198,13 +8267,13 @@
         <v>40706</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>492</v>
+        <v>512</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>494</v>
+        <v>514</v>
       </c>
       <c r="M42" s="7">
         <v>54</v>
@@ -8213,10 +8282,10 @@
         <v>60153</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>495</v>
+        <v>515</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>496</v>
+        <v>440</v>
       </c>
       <c r="Q42" s="7" t="s">
         <v>274</v>
@@ -8234,10 +8303,10 @@
         <v>30629</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>497</v>
+        <v>516</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>443</v>
+        <v>468</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>314</v>
@@ -8249,10 +8318,10 @@
         <v>55915</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>499</v>
+        <v>518</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>168</v>
@@ -8264,13 +8333,13 @@
         <v>86543</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>500</v>
+        <v>519</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>237</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>501</v>
+        <v>520</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -8285,13 +8354,13 @@
         <v>605786</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>502</v>
+        <v>521</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>503</v>
+        <v>522</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>504</v>
+        <v>523</v>
       </c>
       <c r="H44" s="7">
         <v>533</v>
@@ -8300,13 +8369,13 @@
         <v>579587</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>505</v>
+        <v>524</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>507</v>
+        <v>526</v>
       </c>
       <c r="M44" s="7">
         <v>1102</v>
@@ -8315,13 +8384,13 @@
         <v>1185372</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>508</v>
+        <v>527</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>509</v>
+        <v>528</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>510</v>
+        <v>529</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -8395,7 +8464,7 @@
         <v>145</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>511</v>
+        <v>530</v>
       </c>
       <c r="H46" s="7">
         <v>4</v>
@@ -8404,13 +8473,13 @@
         <v>4197</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>416</v>
+        <v>531</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>512</v>
+        <v>441</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>513</v>
+        <v>532</v>
       </c>
       <c r="M46" s="7">
         <v>4</v>
@@ -8419,13 +8488,13 @@
         <v>4197</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>485</v>
+        <v>505</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>515</v>
+        <v>534</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -8446,7 +8515,7 @@
         <v>145</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>511</v>
+        <v>530</v>
       </c>
       <c r="H47" s="7">
         <v>1</v>
@@ -8455,7 +8524,7 @@
         <v>969</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>516</v>
+        <v>535</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>12</v>
@@ -8470,13 +8539,13 @@
         <v>969</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>517</v>
+        <v>536</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>460</v>
+        <v>485</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -8494,10 +8563,10 @@
         <v>229</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>518</v>
+        <v>537</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>519</v>
+        <v>368</v>
       </c>
       <c r="H48" s="7">
         <v>5</v>
@@ -8524,7 +8593,7 @@
         <v>324</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>450</v>
+        <v>364</v>
       </c>
       <c r="Q48" s="7" t="s">
         <v>119</v>
@@ -8542,13 +8611,13 @@
         <v>20584</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>415</v>
+        <v>538</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>205</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>520</v>
+        <v>539</v>
       </c>
       <c r="H49" s="7">
         <v>36</v>
@@ -8557,13 +8626,13 @@
         <v>38472</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>521</v>
+        <v>540</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>522</v>
+        <v>541</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>523</v>
+        <v>542</v>
       </c>
       <c r="M49" s="7">
         <v>55</v>
@@ -8575,10 +8644,10 @@
         <v>121</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>524</v>
+        <v>543</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -8593,13 +8662,13 @@
         <v>747871</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>525</v>
+        <v>544</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>526</v>
+        <v>545</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>527</v>
+        <v>546</v>
       </c>
       <c r="H50" s="7">
         <v>711</v>
@@ -8608,13 +8677,13 @@
         <v>775249</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>528</v>
+        <v>547</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>529</v>
+        <v>548</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>530</v>
+        <v>549</v>
       </c>
       <c r="M50" s="7">
         <v>1400</v>
@@ -8623,13 +8692,13 @@
         <v>1523120</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>531</v>
+        <v>458</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -8700,10 +8769,10 @@
         <v>267</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="H52" s="7">
         <v>31</v>
@@ -8712,13 +8781,13 @@
         <v>32612</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>61</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
       <c r="M52" s="7">
         <v>49</v>
@@ -8733,7 +8802,7 @@
         <v>72</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -8748,10 +8817,10 @@
         <v>12340</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>539</v>
+        <v>557</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>61</v>
@@ -8769,7 +8838,7 @@
         <v>326</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="M53" s="7">
         <v>42</v>
@@ -8784,7 +8853,7 @@
         <v>23</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -8802,10 +8871,10 @@
         <v>155</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>541</v>
+        <v>559</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>542</v>
+        <v>560</v>
       </c>
       <c r="H54" s="7">
         <v>112</v>
@@ -8814,13 +8883,13 @@
         <v>122331</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>543</v>
+        <v>354</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>544</v>
+        <v>561</v>
       </c>
       <c r="M54" s="7">
         <v>175</v>
@@ -8850,13 +8919,13 @@
         <v>129051</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>545</v>
+        <v>367</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>33</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>546</v>
+        <v>562</v>
       </c>
       <c r="H55" s="7">
         <v>173</v>
@@ -8865,10 +8934,10 @@
         <v>187457</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>547</v>
+        <v>563</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
       <c r="L55" s="7" t="s">
         <v>278</v>
@@ -8880,10 +8949,10 @@
         <v>316508</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>549</v>
+        <v>565</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>550</v>
+        <v>566</v>
       </c>
       <c r="Q55" s="7" t="s">
         <v>24</v>
@@ -8901,13 +8970,13 @@
         <v>3195737</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>551</v>
+        <v>567</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>552</v>
+        <v>568</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>553</v>
+        <v>569</v>
       </c>
       <c r="H56" s="7">
         <v>2950</v>
@@ -8916,25 +8985,25 @@
         <v>3180447</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>554</v>
+        <v>570</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>555</v>
+        <v>571</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>556</v>
+        <v>572</v>
       </c>
       <c r="M56" s="7">
         <v>5947</v>
       </c>
       <c r="N56" s="7">
-        <v>6376185</v>
+        <v>6376184</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>557</v>
+        <v>573</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>558</v>
+        <v>574</v>
       </c>
       <c r="Q56" s="7" t="s">
         <v>97</v>
@@ -8979,7 +9048,7 @@
         <v>6504</v>
       </c>
       <c r="N57" s="7">
-        <v>6981898</v>
+        <v>6981897</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>58</v>
@@ -9017,7 +9086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF29B1A6-68DB-42D9-B5D7-7FC6E4CF1455}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECBC676D-BE7C-4BBD-8EAB-3136E1F2332C}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9034,7 +9103,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>559</v>
+        <v>575</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9144,10 +9213,10 @@
         <v>230</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>560</v>
+        <v>576</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>561</v>
+        <v>577</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -9162,7 +9231,7 @@
         <v>263</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>562</v>
+        <v>578</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -9174,10 +9243,10 @@
         <v>305</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>564</v>
+        <v>580</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9192,13 +9261,13 @@
         <v>1301</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>388</v>
+        <v>417</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>565</v>
+        <v>581</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -9213,7 +9282,7 @@
         <v>293</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>495</v>
+        <v>515</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -9228,7 +9297,7 @@
         <v>111</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>566</v>
+        <v>582</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9246,10 +9315,10 @@
         <v>29</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>567</v>
+        <v>583</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>568</v>
+        <v>584</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -9261,10 +9330,10 @@
         <v>220</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>569</v>
+        <v>585</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>570</v>
+        <v>586</v>
       </c>
       <c r="M6" s="7">
         <v>16</v>
@@ -9276,7 +9345,7 @@
         <v>271</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>571</v>
+        <v>587</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>35</v>
@@ -9294,13 +9363,13 @@
         <v>16661</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>572</v>
+        <v>588</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>126</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>573</v>
+        <v>589</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -9309,7 +9378,7 @@
         <v>16699</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>574</v>
+        <v>590</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>126</v>
@@ -9324,13 +9393,13 @@
         <v>33360</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>575</v>
+        <v>591</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>576</v>
+        <v>592</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>577</v>
+        <v>593</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9345,13 +9414,13 @@
         <v>254453</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>578</v>
+        <v>594</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>579</v>
+        <v>595</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="H8" s="7">
         <v>248</v>
@@ -9360,13 +9429,13 @@
         <v>256700</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>581</v>
+        <v>597</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>582</v>
+        <v>598</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>583</v>
+        <v>599</v>
       </c>
       <c r="M8" s="7">
         <v>480</v>
@@ -9375,10 +9444,10 @@
         <v>511153</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>584</v>
+        <v>600</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>585</v>
+        <v>601</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>139</v>
@@ -9449,7 +9518,7 @@
         <v>2152</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>586</v>
+        <v>602</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
@@ -9479,13 +9548,13 @@
         <v>2152</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>441</v>
+        <v>467</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>461</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9506,7 +9575,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -9515,13 +9584,13 @@
         <v>1919</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>587</v>
+        <v>443</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>588</v>
+        <v>603</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -9533,7 +9602,7 @@
         <v>293</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>154</v>
@@ -9551,7 +9620,7 @@
         <v>7694</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>61</v>
@@ -9566,13 +9635,13 @@
         <v>7395</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>591</v>
+        <v>606</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>114</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>396</v>
+        <v>424</v>
       </c>
       <c r="M12" s="7">
         <v>14</v>
@@ -9581,13 +9650,13 @@
         <v>15089</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>592</v>
+        <v>607</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>221</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>593</v>
+        <v>608</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9602,13 +9671,13 @@
         <v>49670</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>595</v>
+        <v>610</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>596</v>
+        <v>611</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -9620,10 +9689,10 @@
         <v>280</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>597</v>
+        <v>612</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>598</v>
+        <v>613</v>
       </c>
       <c r="M13" s="7">
         <v>81</v>
@@ -9632,13 +9701,13 @@
         <v>85523</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>599</v>
+        <v>614</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9653,13 +9722,13 @@
         <v>439888</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>602</v>
+        <v>617</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>604</v>
+        <v>619</v>
       </c>
       <c r="H14" s="7">
         <v>439</v>
@@ -9668,13 +9737,13 @@
         <v>475916</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>606</v>
+        <v>621</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="M14" s="7">
         <v>855</v>
@@ -9683,13 +9752,13 @@
         <v>915804</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>608</v>
+        <v>623</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>609</v>
+        <v>624</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>610</v>
+        <v>625</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9787,13 +9856,13 @@
         <v>3122</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>439</v>
+        <v>465</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>117</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>588</v>
+        <v>603</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9808,13 +9877,13 @@
         <v>935</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>385</v>
+        <v>414</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>362</v>
+        <v>391</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -9829,7 +9898,7 @@
         <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>611</v>
+        <v>360</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -9838,7 +9907,7 @@
         <v>5102</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>461</v>
+        <v>486</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>108</v>
@@ -9865,7 +9934,7 @@
         <v>145</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>612</v>
+        <v>626</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -9877,10 +9946,10 @@
         <v>18</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>518</v>
+        <v>537</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>613</v>
+        <v>627</v>
       </c>
       <c r="M18" s="7">
         <v>5</v>
@@ -9889,13 +9958,13 @@
         <v>5674</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>614</v>
+        <v>628</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>385</v>
+        <v>414</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>615</v>
+        <v>453</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9913,10 +9982,10 @@
         <v>189</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>614</v>
+        <v>628</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -9928,10 +9997,10 @@
         <v>183</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>614</v>
+        <v>628</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>617</v>
+        <v>630</v>
       </c>
       <c r="M19" s="7">
         <v>14</v>
@@ -9946,7 +10015,7 @@
         <v>69</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>618</v>
+        <v>631</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9961,13 +10030,13 @@
         <v>309413</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>619</v>
+        <v>632</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>620</v>
+        <v>633</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>621</v>
+        <v>634</v>
       </c>
       <c r="H20" s="7">
         <v>314</v>
@@ -9976,13 +10045,13 @@
         <v>317572</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>622</v>
+        <v>635</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>623</v>
+        <v>636</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>624</v>
+        <v>637</v>
       </c>
       <c r="M20" s="7">
         <v>639</v>
@@ -9991,13 +10060,13 @@
         <v>626985</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>625</v>
+        <v>638</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -10065,7 +10134,7 @@
         <v>2816</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>358</v>
+        <v>387</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
@@ -10080,7 +10149,7 @@
         <v>4974</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>152</v>
@@ -10095,13 +10164,13 @@
         <v>7790</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>223</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>628</v>
+        <v>641</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10116,13 +10185,13 @@
         <v>991</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>511</v>
+        <v>530</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -10137,7 +10206,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>629</v>
+        <v>642</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -10146,13 +10215,13 @@
         <v>1934</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -10170,10 +10239,10 @@
         <v>124</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>486</v>
+        <v>506</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>631</v>
+        <v>644</v>
       </c>
       <c r="H24" s="7">
         <v>9</v>
@@ -10182,10 +10251,10 @@
         <v>10011</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>396</v>
+        <v>424</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>588</v>
+        <v>603</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>304</v>
@@ -10197,10 +10266,10 @@
         <v>18059</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>632</v>
+        <v>645</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>65</v>
@@ -10218,10 +10287,10 @@
         <v>16076</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>633</v>
+        <v>646</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>593</v>
+        <v>608</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>280</v>
@@ -10233,10 +10302,10 @@
         <v>8260</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>634</v>
+        <v>647</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>77</v>
@@ -10248,10 +10317,10 @@
         <v>24337</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>635</v>
+        <v>648</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>488</v>
+        <v>508</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>304</v>
@@ -10269,13 +10338,13 @@
         <v>342033</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>637</v>
+        <v>650</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>638</v>
+        <v>651</v>
       </c>
       <c r="H26" s="7">
         <v>335</v>
@@ -10284,13 +10353,13 @@
         <v>363095</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>639</v>
+        <v>652</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>640</v>
+        <v>653</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>625</v>
+        <v>638</v>
       </c>
       <c r="M26" s="7">
         <v>663</v>
@@ -10299,13 +10368,13 @@
         <v>705128</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>641</v>
+        <v>654</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>642</v>
+        <v>655</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>406</v>
+        <v>433</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10403,7 +10472,7 @@
         <v>957</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>643</v>
+        <v>656</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>12</v>
@@ -10430,7 +10499,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>644</v>
+        <v>657</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -10445,7 +10514,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>593</v>
+        <v>608</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -10454,13 +10523,13 @@
         <v>2792</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>515</v>
+        <v>534</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>487</v>
+        <v>507</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10475,13 +10544,13 @@
         <v>1745</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>645</v>
+        <v>658</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -10511,7 +10580,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>588</v>
+        <v>603</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10526,13 +10595,13 @@
         <v>2969</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>26</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>446</v>
+        <v>471</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -10544,10 +10613,10 @@
         <v>156</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>439</v>
+        <v>465</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>647</v>
+        <v>660</v>
       </c>
       <c r="M31" s="7">
         <v>7</v>
@@ -10562,7 +10631,7 @@
         <v>262</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>648</v>
+        <v>661</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10577,13 +10646,13 @@
         <v>203737</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>649</v>
+        <v>662</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>650</v>
+        <v>663</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="H32" s="7">
         <v>218</v>
@@ -10592,13 +10661,13 @@
         <v>213031</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>652</v>
+        <v>665</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>653</v>
+        <v>666</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>654</v>
+        <v>667</v>
       </c>
       <c r="M32" s="7">
         <v>423</v>
@@ -10607,13 +10676,13 @@
         <v>416768</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>655</v>
+        <v>668</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>656</v>
+        <v>669</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10687,7 +10756,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="H34" s="7">
         <v>9</v>
@@ -10696,13 +10765,13 @@
         <v>9755</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>419</v>
+        <v>672</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>659</v>
+        <v>355</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>660</v>
+        <v>673</v>
       </c>
       <c r="M34" s="7">
         <v>11</v>
@@ -10711,13 +10780,13 @@
         <v>11647</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>628</v>
+        <v>641</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>661</v>
+        <v>674</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10732,13 +10801,13 @@
         <v>2077</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>662</v>
+        <v>675</v>
       </c>
       <c r="H35" s="7">
         <v>9</v>
@@ -10747,7 +10816,7 @@
         <v>8583</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>618</v>
+        <v>631</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>60</v>
@@ -10762,10 +10831,10 @@
         <v>10660</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>560</v>
+        <v>576</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>486</v>
+        <v>506</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>29</v>
@@ -10783,13 +10852,13 @@
         <v>11653</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>495</v>
+        <v>515</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>663</v>
+        <v>676</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>664</v>
+        <v>677</v>
       </c>
       <c r="H36" s="7">
         <v>7</v>
@@ -10804,7 +10873,7 @@
         <v>69</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
       <c r="M36" s="7">
         <v>18</v>
@@ -10813,13 +10882,13 @@
         <v>19168</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>419</v>
+        <v>672</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>615</v>
+        <v>453</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>666</v>
+        <v>679</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10834,13 +10903,13 @@
         <v>10915</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>667</v>
+        <v>680</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>183</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="H37" s="7">
         <v>11</v>
@@ -10849,13 +10918,13 @@
         <v>11411</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>668</v>
+        <v>447</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>266</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>669</v>
+        <v>681</v>
       </c>
       <c r="M37" s="7">
         <v>22</v>
@@ -10870,7 +10939,7 @@
         <v>84</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10885,13 +10954,13 @@
         <v>236586</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>671</v>
+        <v>683</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>672</v>
+        <v>684</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>673</v>
+        <v>685</v>
       </c>
       <c r="H38" s="7">
         <v>227</v>
@@ -10900,13 +10969,13 @@
         <v>235851</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>676</v>
+        <v>688</v>
       </c>
       <c r="M38" s="7">
         <v>460</v>
@@ -10915,13 +10984,13 @@
         <v>472437</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>677</v>
+        <v>689</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -11010,7 +11079,7 @@
         <v>16</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>424</v>
+        <v>484</v>
       </c>
       <c r="M40" s="7">
         <v>10</v>
@@ -11019,13 +11088,13 @@
         <v>11157</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>645</v>
+        <v>658</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>188</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -11046,7 +11115,7 @@
         <v>326</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="H41" s="7">
         <v>3</v>
@@ -11058,7 +11127,7 @@
         <v>188</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>512</v>
+        <v>441</v>
       </c>
       <c r="L41" s="7" t="s">
         <v>265</v>
@@ -11070,7 +11139,7 @@
         <v>11645</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>614</v>
+        <v>628</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>182</v>
@@ -11091,13 +11160,13 @@
         <v>21981</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>496</v>
+        <v>440</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>389</v>
+        <v>418</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="H42" s="7">
         <v>26</v>
@@ -11121,13 +11190,13 @@
         <v>48881</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>73</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>403</v>
+        <v>430</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -11142,13 +11211,13 @@
         <v>46777</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>684</v>
+        <v>696</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>685</v>
+        <v>697</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>686</v>
+        <v>698</v>
       </c>
       <c r="H43" s="7">
         <v>33</v>
@@ -11157,13 +11226,13 @@
         <v>36466</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>687</v>
+        <v>699</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>204</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="M43" s="7">
         <v>74</v>
@@ -11178,7 +11247,7 @@
         <v>313</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>689</v>
+        <v>701</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -11193,13 +11262,13 @@
         <v>573913</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>690</v>
+        <v>702</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>691</v>
+        <v>703</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>692</v>
+        <v>704</v>
       </c>
       <c r="H44" s="7">
         <v>576</v>
@@ -11208,13 +11277,13 @@
         <v>615686</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>693</v>
+        <v>705</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>694</v>
+        <v>706</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>695</v>
+        <v>707</v>
       </c>
       <c r="M44" s="7">
         <v>1083</v>
@@ -11226,10 +11295,10 @@
         <v>316</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -11303,7 +11372,7 @@
         <v>145</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="H46" s="7">
         <v>4</v>
@@ -11312,13 +11381,13 @@
         <v>4208</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>416</v>
+        <v>531</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>512</v>
+        <v>441</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="M46" s="7">
         <v>4</v>
@@ -11327,10 +11396,10 @@
         <v>4208</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>485</v>
+        <v>505</v>
       </c>
       <c r="Q46" s="7" t="s">
         <v>120</v>
@@ -11351,7 +11420,7 @@
         <v>105</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>512</v>
+        <v>441</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>151</v>
@@ -11366,7 +11435,7 @@
         <v>72</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>512</v>
+        <v>441</v>
       </c>
       <c r="L47" s="7" t="s">
         <v>205</v>
@@ -11378,13 +11447,13 @@
         <v>8611</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>356</v>
+        <v>385</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>193</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>390</v>
+        <v>419</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -11402,10 +11471,10 @@
         <v>25</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>518</v>
+        <v>537</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>698</v>
+        <v>710</v>
       </c>
       <c r="H48" s="7">
         <v>15</v>
@@ -11414,10 +11483,10 @@
         <v>15937</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>699</v>
+        <v>711</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>700</v>
+        <v>712</v>
       </c>
       <c r="L48" s="7" t="s">
         <v>332</v>
@@ -11432,7 +11501,7 @@
         <v>22</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="Q48" s="7" t="s">
         <v>266</v>
@@ -11450,13 +11519,13 @@
         <v>26713</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>543</v>
+        <v>354</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>701</v>
+        <v>713</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>702</v>
+        <v>714</v>
       </c>
       <c r="H49" s="7">
         <v>20</v>
@@ -11465,13 +11534,13 @@
         <v>21303</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>703</v>
+        <v>715</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>298</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>704</v>
+        <v>716</v>
       </c>
       <c r="M49" s="7">
         <v>44</v>
@@ -11480,13 +11549,13 @@
         <v>48017</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>90</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>705</v>
+        <v>717</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -11501,13 +11570,13 @@
         <v>737335</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>706</v>
+        <v>718</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>707</v>
+        <v>719</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>708</v>
+        <v>720</v>
       </c>
       <c r="H50" s="7">
         <v>712</v>
@@ -11516,13 +11585,13 @@
         <v>779954</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>709</v>
+        <v>721</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>711</v>
+        <v>723</v>
       </c>
       <c r="M50" s="7">
         <v>1424</v>
@@ -11531,13 +11600,13 @@
         <v>1517289</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>712</v>
+        <v>724</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>713</v>
+        <v>725</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>714</v>
+        <v>726</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -11611,7 +11680,7 @@
         <v>188</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>486</v>
+        <v>506</v>
       </c>
       <c r="H52" s="7">
         <v>31</v>
@@ -11623,10 +11692,10 @@
         <v>110</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>715</v>
+        <v>727</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
       <c r="M52" s="7">
         <v>51</v>
@@ -11635,7 +11704,7 @@
         <v>56366</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
       <c r="P52" s="7" t="s">
         <v>267</v>
@@ -11662,7 +11731,7 @@
         <v>293</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>717</v>
+        <v>729</v>
       </c>
       <c r="H53" s="7">
         <v>27</v>
@@ -11671,13 +11740,13 @@
         <v>28766</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>356</v>
+        <v>385</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>513</v>
+        <v>532</v>
       </c>
       <c r="M53" s="7">
         <v>47</v>
@@ -11686,13 +11755,13 @@
         <v>50562</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>459</v>
+        <v>483</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>356</v>
+        <v>385</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>361</v>
+        <v>390</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -11707,10 +11776,10 @@
         <v>69780</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>417</v>
+        <v>730</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>718</v>
+        <v>731</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>224</v>
@@ -11722,13 +11791,13 @@
         <v>80344</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>701</v>
+        <v>713</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>719</v>
+        <v>732</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
       <c r="M54" s="7">
         <v>140</v>
@@ -11737,13 +11806,13 @@
         <v>150125</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>628</v>
+        <v>641</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>721</v>
+        <v>734</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -11758,13 +11827,13 @@
         <v>176165</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>723</v>
+        <v>736</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>724</v>
+        <v>737</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>725</v>
+        <v>738</v>
       </c>
       <c r="H55" s="7">
         <v>132</v>
@@ -11773,13 +11842,13 @@
         <v>141313</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>726</v>
+        <v>739</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>496</v>
+        <v>440</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>564</v>
+        <v>580</v>
       </c>
       <c r="M55" s="7">
         <v>295</v>
@@ -11791,10 +11860,10 @@
         <v>133</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>727</v>
+        <v>740</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>728</v>
+        <v>741</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -11809,13 +11878,13 @@
         <v>3097357</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>610</v>
+        <v>625</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>729</v>
+        <v>742</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>730</v>
+        <v>743</v>
       </c>
       <c r="H56" s="7">
         <v>3069</v>
@@ -11824,13 +11893,13 @@
         <v>3257805</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>731</v>
+        <v>744</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>732</v>
+        <v>745</v>
       </c>
       <c r="M56" s="7">
         <v>6027</v>
@@ -11839,13 +11908,13 @@
         <v>6355162</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>733</v>
+        <v>746</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>734</v>
+        <v>747</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -11925,7 +11994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B02082A-0B10-49B7-9EAB-98118242E1B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46DB55A4-77DD-4292-A7CC-F1105103EAC9}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11942,7 +12011,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>735</v>
+        <v>748</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -12046,46 +12115,46 @@
         <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>9080</v>
+        <v>11896</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>736</v>
+        <v>749</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>541</v>
+        <v>22</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>737</v>
+        <v>750</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>3767</v>
+        <v>4078</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>264</v>
+        <v>579</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>738</v>
+        <v>751</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>739</v>
+        <v>566</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
       </c>
       <c r="N4" s="7">
-        <v>12847</v>
+        <v>15974</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>542</v>
+        <v>582</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>752</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>740</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -12097,46 +12166,46 @@
         <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>516</v>
+        <v>753</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>105</v>
+        <v>417</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>1666</v>
+        <v>1784</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>267</v>
+        <v>754</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>539</v>
+        <v>755</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>63</v>
+        <v>306</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
       </c>
       <c r="N5" s="7">
-        <v>1985</v>
+        <v>2121</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>587</v>
+        <v>485</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>741</v>
+        <v>756</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>742</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -12148,46 +12217,46 @@
         <v>7</v>
       </c>
       <c r="D6" s="7">
-        <v>5972</v>
+        <v>6736</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>266</v>
+        <v>757</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>365</v>
+        <v>64</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>200</v>
+        <v>758</v>
       </c>
       <c r="H6" s="7">
         <v>16</v>
       </c>
       <c r="I6" s="7">
-        <v>8393</v>
+        <v>8958</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>611</v>
+        <v>360</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>743</v>
+        <v>190</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>702</v>
+        <v>759</v>
       </c>
       <c r="M6" s="7">
         <v>23</v>
       </c>
       <c r="N6" s="7">
-        <v>14365</v>
+        <v>15693</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>744</v>
+        <v>760</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>162</v>
+        <v>761</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>375</v>
+        <v>762</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -12199,46 +12268,46 @@
         <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>12855</v>
+        <v>16298</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>647</v>
+        <v>763</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>27</v>
+        <v>764</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>745</v>
+        <v>765</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
       </c>
       <c r="I7" s="7">
-        <v>17689</v>
+        <v>20624</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>31</v>
+        <v>766</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>746</v>
+        <v>767</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>747</v>
+        <v>768</v>
       </c>
       <c r="M7" s="7">
         <v>43</v>
       </c>
       <c r="N7" s="7">
-        <v>30544</v>
+        <v>36922</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>748</v>
+        <v>371</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>544</v>
+        <v>769</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>749</v>
+        <v>770</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -12250,46 +12319,46 @@
         <v>302</v>
       </c>
       <c r="D8" s="7">
-        <v>232072</v>
+        <v>276177</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>750</v>
+        <v>771</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>751</v>
+        <v>772</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>752</v>
+        <v>217</v>
       </c>
       <c r="H8" s="7">
         <v>483</v>
       </c>
       <c r="I8" s="7">
-        <v>239889</v>
+        <v>254191</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>753</v>
+        <v>600</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>754</v>
+        <v>773</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>755</v>
+        <v>774</v>
       </c>
       <c r="M8" s="7">
         <v>785</v>
       </c>
       <c r="N8" s="7">
-        <v>471959</v>
+        <v>530367</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>756</v>
+        <v>775</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>757</v>
+        <v>776</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>758</v>
+        <v>777</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -12301,7 +12370,7 @@
         <v>331</v>
       </c>
       <c r="D9" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>58</v>
@@ -12316,7 +12385,7 @@
         <v>538</v>
       </c>
       <c r="I9" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>58</v>
@@ -12331,7 +12400,7 @@
         <v>869</v>
       </c>
       <c r="N9" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -12354,46 +12423,46 @@
         <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>6745</v>
+        <v>6557</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>588</v>
+        <v>778</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>611</v>
+        <v>36</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>5516</v>
+        <v>5134</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>365</v>
+        <v>154</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>152</v>
+        <v>465</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>615</v>
+        <v>453</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
       </c>
       <c r="N10" s="7">
-        <v>12261</v>
+        <v>11692</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>355</v>
+        <v>25</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>612</v>
+        <v>72</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>389</v>
+        <v>508</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -12405,46 +12474,46 @@
         <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>3115</v>
+        <v>2960</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>120</v>
+        <v>626</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="H11" s="7">
         <v>11</v>
       </c>
       <c r="I11" s="7">
-        <v>12071</v>
+        <v>11554</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>124</v>
+        <v>779</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>629</v>
+        <v>300</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>724</v>
+        <v>495</v>
       </c>
       <c r="M11" s="7">
         <v>14</v>
       </c>
       <c r="N11" s="7">
-        <v>15186</v>
+        <v>14514</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>563</v>
+        <v>752</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>459</v>
+        <v>483</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>27</v>
+        <v>760</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -12456,46 +12525,46 @@
         <v>44</v>
       </c>
       <c r="D12" s="7">
-        <v>56103</v>
+        <v>55150</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>759</v>
+        <v>780</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>760</v>
+        <v>781</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>761</v>
+        <v>782</v>
       </c>
       <c r="H12" s="7">
         <v>66</v>
       </c>
       <c r="I12" s="7">
-        <v>54123</v>
+        <v>49905</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>762</v>
+        <v>783</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>763</v>
+        <v>132</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>764</v>
+        <v>784</v>
       </c>
       <c r="M12" s="7">
         <v>110</v>
       </c>
       <c r="N12" s="7">
-        <v>110226</v>
+        <v>105055</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>766</v>
+        <v>786</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>767</v>
+        <v>787</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -12507,46 +12576,46 @@
         <v>89</v>
       </c>
       <c r="D13" s="7">
-        <v>116391</v>
+        <v>115358</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>768</v>
+        <v>788</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>769</v>
+        <v>789</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>770</v>
+        <v>790</v>
       </c>
       <c r="H13" s="7">
         <v>142</v>
       </c>
       <c r="I13" s="7">
-        <v>104103</v>
+        <v>96766</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>771</v>
+        <v>791</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>772</v>
+        <v>792</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>773</v>
+        <v>793</v>
       </c>
       <c r="M13" s="7">
         <v>231</v>
       </c>
       <c r="N13" s="7">
-        <v>220495</v>
+        <v>212124</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>774</v>
+        <v>794</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>776</v>
+        <v>796</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -12558,46 +12627,46 @@
         <v>241</v>
       </c>
       <c r="D14" s="7">
-        <v>336943</v>
+        <v>338365</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>777</v>
+        <v>797</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>778</v>
+        <v>798</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>779</v>
+        <v>799</v>
       </c>
       <c r="H14" s="7">
         <v>491</v>
       </c>
       <c r="I14" s="7">
-        <v>378753</v>
+        <v>351610</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>780</v>
+        <v>800</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>781</v>
+        <v>801</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>782</v>
+        <v>802</v>
       </c>
       <c r="M14" s="7">
         <v>732</v>
       </c>
       <c r="N14" s="7">
-        <v>715696</v>
+        <v>689975</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>784</v>
+        <v>804</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>785</v>
+        <v>805</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -12609,7 +12678,7 @@
         <v>382</v>
       </c>
       <c r="D15" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>58</v>
@@ -12624,7 +12693,7 @@
         <v>717</v>
       </c>
       <c r="I15" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>58</v>
@@ -12639,7 +12708,7 @@
         <v>1099</v>
       </c>
       <c r="N15" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>58</v>
@@ -12662,28 +12731,28 @@
         <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>5729</v>
+        <v>5630</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>786</v>
+        <v>806</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>262</v>
+        <v>325</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>787</v>
+        <v>807</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
       </c>
       <c r="I16" s="7">
-        <v>5797</v>
+        <v>5401</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>119</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>328</v>
+        <v>20</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>33</v>
@@ -12692,16 +12761,16 @@
         <v>14</v>
       </c>
       <c r="N16" s="7">
-        <v>11526</v>
+        <v>11031</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>742</v>
+        <v>420</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>720</v>
+        <v>808</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -12713,46 +12782,46 @@
         <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>1746</v>
+        <v>1647</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>295</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>60</v>
+        <v>205</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
       </c>
       <c r="I17" s="7">
-        <v>4499</v>
+        <v>4189</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>125</v>
+        <v>809</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>439</v>
+        <v>152</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>224</v>
+        <v>106</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
       </c>
       <c r="N17" s="7">
-        <v>6244</v>
+        <v>5836</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>147</v>
+        <v>420</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>388</v>
+        <v>602</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>721</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -12764,46 +12833,46 @@
         <v>10</v>
       </c>
       <c r="D18" s="7">
-        <v>11859</v>
+        <v>11973</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>89</v>
+        <v>331</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>183</v>
+        <v>272</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>788</v>
+        <v>337</v>
       </c>
       <c r="H18" s="7">
         <v>12</v>
       </c>
       <c r="I18" s="7">
-        <v>8477</v>
+        <v>7899</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>789</v>
+        <v>810</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>790</v>
+        <v>184</v>
       </c>
       <c r="M18" s="7">
         <v>22</v>
       </c>
       <c r="N18" s="7">
-        <v>20336</v>
+        <v>19872</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>131</v>
+        <v>202</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>386</v>
+        <v>294</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>200</v>
+        <v>811</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -12815,46 +12884,46 @@
         <v>17</v>
       </c>
       <c r="D19" s="7">
-        <v>14812</v>
+        <v>14577</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>548</v>
+        <v>493</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>78</v>
+        <v>671</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>791</v>
+        <v>812</v>
       </c>
       <c r="H19" s="7">
         <v>38</v>
       </c>
       <c r="I19" s="7">
-        <v>34444</v>
+        <v>32554</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>792</v>
+        <v>813</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>793</v>
+        <v>814</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>794</v>
+        <v>45</v>
       </c>
       <c r="M19" s="7">
         <v>55</v>
       </c>
       <c r="N19" s="7">
-        <v>49256</v>
+        <v>47130</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>795</v>
+        <v>815</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>796</v>
+        <v>816</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>797</v>
+        <v>817</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -12866,46 +12935,46 @@
         <v>324</v>
       </c>
       <c r="D20" s="7">
-        <v>288094</v>
+        <v>282223</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>798</v>
+        <v>410</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>800</v>
+        <v>819</v>
       </c>
       <c r="H20" s="7">
         <v>472</v>
       </c>
       <c r="I20" s="7">
-        <v>320068</v>
+        <v>299085</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>801</v>
+        <v>820</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>802</v>
+        <v>821</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>409</v>
+        <v>436</v>
       </c>
       <c r="M20" s="7">
         <v>796</v>
       </c>
       <c r="N20" s="7">
-        <v>608162</v>
+        <v>581309</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>803</v>
+        <v>822</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>804</v>
+        <v>823</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>805</v>
+        <v>824</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -12917,7 +12986,7 @@
         <v>360</v>
       </c>
       <c r="D21" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>58</v>
@@ -12932,7 +13001,7 @@
         <v>536</v>
       </c>
       <c r="I21" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>58</v>
@@ -12947,7 +13016,7 @@
         <v>896</v>
       </c>
       <c r="N21" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>58</v>
@@ -12970,46 +13039,46 @@
         <v>6</v>
       </c>
       <c r="D22" s="7">
-        <v>6298</v>
+        <v>6242</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>724</v>
+        <v>564</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
       </c>
       <c r="I22" s="7">
-        <v>4532</v>
+        <v>4224</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>67</v>
+        <v>825</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>368</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
       </c>
       <c r="N22" s="7">
-        <v>10829</v>
+        <v>10466</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>418</v>
+        <v>118</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>325</v>
+        <v>120</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>806</v>
+        <v>826</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -13036,31 +13105,31 @@
         <v>9</v>
       </c>
       <c r="I23" s="7">
-        <v>20899</v>
+        <v>74814</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>807</v>
+        <v>827</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>390</v>
+        <v>825</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>808</v>
+        <v>828</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
       </c>
       <c r="N23" s="7">
-        <v>20899</v>
+        <v>74814</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>70</v>
+        <v>613</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>16</v>
+        <v>364</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>809</v>
+        <v>829</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -13072,46 +13141,46 @@
         <v>3</v>
       </c>
       <c r="D24" s="7">
-        <v>3543</v>
+        <v>3471</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>700</v>
+        <v>358</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>193</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>618</v>
+        <v>830</v>
       </c>
       <c r="H24" s="7">
         <v>11</v>
       </c>
       <c r="I24" s="7">
-        <v>7675</v>
+        <v>6872</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>386</v>
+        <v>442</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>296</v>
+        <v>534</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>810</v>
+        <v>68</v>
       </c>
       <c r="M24" s="7">
         <v>14</v>
       </c>
       <c r="N24" s="7">
-        <v>11218</v>
+        <v>10343</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>680</v>
+        <v>831</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>20</v>
+        <v>727</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>811</v>
+        <v>832</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -13123,46 +13192,46 @@
         <v>6</v>
       </c>
       <c r="D25" s="7">
-        <v>6978</v>
+        <v>6444</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>628</v>
+        <v>730</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>715</v>
+        <v>754</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>812</v>
+        <v>833</v>
       </c>
       <c r="H25" s="7">
         <v>15</v>
       </c>
       <c r="I25" s="7">
-        <v>8766</v>
+        <v>8079</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>366</v>
+        <v>834</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>700</v>
+        <v>14</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>86</v>
+        <v>808</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
       </c>
       <c r="N25" s="7">
-        <v>15744</v>
+        <v>14523</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>389</v>
+        <v>835</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>74</v>
+        <v>506</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>813</v>
+        <v>836</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -13174,46 +13243,46 @@
         <v>277</v>
       </c>
       <c r="D26" s="7">
-        <v>305422</v>
+        <v>296400</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>814</v>
+        <v>837</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>695</v>
+        <v>439</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>815</v>
+        <v>632</v>
       </c>
       <c r="H26" s="7">
         <v>558</v>
       </c>
       <c r="I26" s="7">
-        <v>386684</v>
+        <v>381729</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>692</v>
+        <v>838</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>816</v>
+        <v>839</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>817</v>
+        <v>840</v>
       </c>
       <c r="M26" s="7">
         <v>835</v>
       </c>
       <c r="N26" s="7">
-        <v>692106</v>
+        <v>678128</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>818</v>
+        <v>841</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>819</v>
+        <v>842</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>820</v>
+        <v>843</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -13225,7 +13294,7 @@
         <v>292</v>
       </c>
       <c r="D27" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>58</v>
@@ -13240,7 +13309,7 @@
         <v>599</v>
       </c>
       <c r="I27" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>58</v>
@@ -13255,7 +13324,7 @@
         <v>891</v>
       </c>
       <c r="N27" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>58</v>
@@ -13278,7 +13347,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="7">
-        <v>599</v>
+        <v>543</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>108</v>
@@ -13287,37 +13356,37 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
       </c>
       <c r="I28" s="7">
-        <v>1240</v>
+        <v>1099</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>356</v>
+        <v>146</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>183</v>
+        <v>844</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
       </c>
       <c r="N28" s="7">
-        <v>1838</v>
+        <v>1642</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>586</v>
+        <v>188</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>821</v>
+        <v>469</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -13380,46 +13449,46 @@
         <v>4</v>
       </c>
       <c r="D30" s="7">
-        <v>2684</v>
+        <v>2446</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>107</v>
+        <v>558</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>822</v>
+        <v>836</v>
       </c>
       <c r="H30" s="7">
         <v>15</v>
       </c>
       <c r="I30" s="7">
-        <v>7642</v>
+        <v>7019</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>823</v>
+        <v>29</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>81</v>
+        <v>395</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>824</v>
+        <v>845</v>
       </c>
       <c r="M30" s="7">
         <v>19</v>
       </c>
       <c r="N30" s="7">
-        <v>10327</v>
+        <v>9465</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>112</v>
+        <v>608</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>825</v>
+        <v>692</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>826</v>
+        <v>513</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -13431,46 +13500,46 @@
         <v>88</v>
       </c>
       <c r="D31" s="7">
-        <v>61864</v>
+        <v>56189</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>827</v>
+        <v>846</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>828</v>
+        <v>847</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>829</v>
+        <v>848</v>
       </c>
       <c r="H31" s="7">
         <v>178</v>
       </c>
       <c r="I31" s="7">
-        <v>80283</v>
+        <v>72294</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>830</v>
+        <v>849</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>831</v>
+        <v>850</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>832</v>
+        <v>851</v>
       </c>
       <c r="M31" s="7">
         <v>266</v>
       </c>
       <c r="N31" s="7">
-        <v>142148</v>
+        <v>128483</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>833</v>
+        <v>852</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>834</v>
+        <v>853</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>835</v>
+        <v>854</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -13482,46 +13551,46 @@
         <v>186</v>
       </c>
       <c r="D32" s="7">
-        <v>131601</v>
+        <v>119565</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>836</v>
+        <v>855</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>837</v>
+        <v>856</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>838</v>
+        <v>857</v>
       </c>
       <c r="H32" s="7">
         <v>296</v>
       </c>
       <c r="I32" s="7">
-        <v>142331</v>
+        <v>127861</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>839</v>
+        <v>858</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>840</v>
+        <v>859</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>841</v>
+        <v>860</v>
       </c>
       <c r="M32" s="7">
         <v>482</v>
       </c>
       <c r="N32" s="7">
-        <v>273931</v>
+        <v>247426</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>842</v>
+        <v>861</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>843</v>
+        <v>862</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>844</v>
+        <v>863</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -13533,7 +13602,7 @@
         <v>279</v>
       </c>
       <c r="D33" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>58</v>
@@ -13548,7 +13617,7 @@
         <v>491</v>
       </c>
       <c r="I33" s="7">
-        <v>231496</v>
+        <v>208274</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>58</v>
@@ -13563,7 +13632,7 @@
         <v>770</v>
       </c>
       <c r="N33" s="7">
-        <v>428244</v>
+        <v>387016</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>58</v>
@@ -13586,46 +13655,46 @@
         <v>3</v>
       </c>
       <c r="D34" s="7">
-        <v>2340</v>
+        <v>2213</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>296</v>
+        <v>14</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>539</v>
+        <v>557</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>722</v>
+        <v>675</v>
       </c>
       <c r="H34" s="7">
         <v>9</v>
       </c>
       <c r="I34" s="7">
-        <v>6681</v>
+        <v>6194</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>542</v>
+        <v>112</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>513</v>
+        <v>463</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>845</v>
+        <v>864</v>
       </c>
       <c r="M34" s="7">
         <v>12</v>
       </c>
       <c r="N34" s="7">
-        <v>9021</v>
+        <v>8407</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>298</v>
+        <v>13</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>292</v>
+        <v>658</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>131</v>
+        <v>826</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -13637,46 +13706,46 @@
         <v>11</v>
       </c>
       <c r="D35" s="7">
-        <v>7787</v>
+        <v>7668</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>720</v>
+        <v>448</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>821</v>
+        <v>122</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>687</v>
+        <v>865</v>
       </c>
       <c r="H35" s="7">
         <v>18</v>
       </c>
       <c r="I35" s="7">
-        <v>10042</v>
+        <v>9402</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>488</v>
+        <v>647</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>846</v>
+        <v>371</v>
       </c>
       <c r="M35" s="7">
         <v>29</v>
       </c>
       <c r="N35" s="7">
-        <v>17828</v>
+        <v>17070</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>822</v>
+        <v>302</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>847</v>
+        <v>641</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>85</v>
+        <v>866</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -13688,46 +13757,46 @@
         <v>24</v>
       </c>
       <c r="D36" s="7">
-        <v>16666</v>
+        <v>16410</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>312</v>
+        <v>867</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>613</v>
+        <v>716</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>848</v>
+        <v>868</v>
       </c>
       <c r="H36" s="7">
         <v>26</v>
       </c>
       <c r="I36" s="7">
-        <v>14378</v>
+        <v>13472</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>123</v>
+        <v>869</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>849</v>
+        <v>870</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>373</v>
+        <v>871</v>
       </c>
       <c r="M36" s="7">
         <v>50</v>
       </c>
       <c r="N36" s="7">
-        <v>31044</v>
+        <v>29882</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>850</v>
+        <v>588</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>746</v>
+        <v>644</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>760</v>
+        <v>701</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -13739,46 +13808,46 @@
         <v>22</v>
       </c>
       <c r="D37" s="7">
-        <v>16568</v>
+        <v>16531</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>851</v>
+        <v>872</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>852</v>
+        <v>393</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>853</v>
+        <v>873</v>
       </c>
       <c r="H37" s="7">
         <v>32</v>
       </c>
       <c r="I37" s="7">
-        <v>18592</v>
+        <v>17379</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>854</v>
+        <v>336</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>855</v>
+        <v>874</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>856</v>
+        <v>875</v>
       </c>
       <c r="M37" s="7">
         <v>54</v>
       </c>
       <c r="N37" s="7">
-        <v>35160</v>
+        <v>33910</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>857</v>
+        <v>876</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>521</v>
+        <v>310</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>858</v>
+        <v>877</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -13790,46 +13859,46 @@
         <v>311</v>
       </c>
       <c r="D38" s="7">
-        <v>233863</v>
+        <v>226814</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>859</v>
+        <v>878</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>860</v>
+        <v>879</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>861</v>
+        <v>880</v>
       </c>
       <c r="H38" s="7">
         <v>375</v>
       </c>
       <c r="I38" s="7">
-        <v>225930</v>
+        <v>210610</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>862</v>
+        <v>881</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>863</v>
+        <v>882</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>801</v>
+        <v>883</v>
       </c>
       <c r="M38" s="7">
         <v>686</v>
       </c>
       <c r="N38" s="7">
-        <v>459793</v>
+        <v>437424</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>864</v>
+        <v>884</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>865</v>
+        <v>885</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>672</v>
+        <v>886</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -13841,7 +13910,7 @@
         <v>371</v>
       </c>
       <c r="D39" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>58</v>
@@ -13856,7 +13925,7 @@
         <v>460</v>
       </c>
       <c r="I39" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>58</v>
@@ -13871,7 +13940,7 @@
         <v>831</v>
       </c>
       <c r="N39" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>58</v>
@@ -13894,46 +13963,46 @@
         <v>4</v>
       </c>
       <c r="D40" s="7">
-        <v>5105</v>
+        <v>5106</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>716</v>
+        <v>14</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>357</v>
+        <v>560</v>
       </c>
       <c r="H40" s="7">
         <v>22</v>
       </c>
       <c r="I40" s="7">
-        <v>12575</v>
+        <v>11839</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>718</v>
+        <v>752</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>614</v>
+        <v>146</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>519</v>
+        <v>887</v>
       </c>
       <c r="M40" s="7">
         <v>26</v>
       </c>
       <c r="N40" s="7">
-        <v>17680</v>
+        <v>16946</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>229</v>
+        <v>69</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>358</v>
+        <v>323</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>159</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -13945,46 +14014,46 @@
         <v>6</v>
       </c>
       <c r="D41" s="7">
-        <v>6799</v>
+        <v>6665</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>192</v>
+        <v>888</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>866</v>
+        <v>128</v>
       </c>
       <c r="H41" s="7">
         <v>10</v>
       </c>
       <c r="I41" s="7">
-        <v>5962</v>
+        <v>5371</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>20</v>
+        <v>727</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>867</v>
+        <v>149</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>590</v>
+        <v>831</v>
       </c>
       <c r="M41" s="7">
         <v>16</v>
       </c>
       <c r="N41" s="7">
-        <v>12761</v>
+        <v>12035</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>742</v>
+        <v>14</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>439</v>
+        <v>182</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>590</v>
+        <v>442</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -13996,46 +14065,46 @@
         <v>29</v>
       </c>
       <c r="D42" s="7">
-        <v>28734</v>
+        <v>27808</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>133</v>
+        <v>737</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>868</v>
+        <v>15</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>869</v>
+        <v>615</v>
       </c>
       <c r="H42" s="7">
         <v>64</v>
       </c>
       <c r="I42" s="7">
-        <v>47233</v>
+        <v>44328</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>870</v>
+        <v>123</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>489</v>
+        <v>386</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>501</v>
+        <v>276</v>
       </c>
       <c r="M42" s="7">
         <v>93</v>
       </c>
       <c r="N42" s="7">
-        <v>75966</v>
+        <v>72137</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>871</v>
+        <v>889</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>872</v>
+        <v>426</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>336</v>
+        <v>890</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -14047,46 +14116,46 @@
         <v>89</v>
       </c>
       <c r="D43" s="7">
-        <v>82883</v>
+        <v>80930</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>873</v>
+        <v>891</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>874</v>
+        <v>279</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>875</v>
+        <v>892</v>
       </c>
       <c r="H43" s="7">
         <v>112</v>
       </c>
       <c r="I43" s="7">
-        <v>83015</v>
+        <v>77213</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>876</v>
+        <v>893</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>877</v>
+        <v>304</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>878</v>
+        <v>894</v>
       </c>
       <c r="M43" s="7">
         <v>201</v>
       </c>
       <c r="N43" s="7">
-        <v>165898</v>
+        <v>158143</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>879</v>
+        <v>895</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>880</v>
+        <v>164</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>881</v>
+        <v>896</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -14098,46 +14167,46 @@
         <v>471</v>
       </c>
       <c r="D44" s="7">
-        <v>504233</v>
+        <v>503769</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>882</v>
+        <v>897</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>883</v>
+        <v>898</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>884</v>
+        <v>899</v>
       </c>
       <c r="H44" s="7">
         <v>751</v>
       </c>
       <c r="I44" s="7">
-        <v>654503</v>
+        <v>709654</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>885</v>
+        <v>213</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>886</v>
+        <v>900</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>887</v>
+        <v>901</v>
       </c>
       <c r="M44" s="7">
         <v>1222</v>
       </c>
       <c r="N44" s="7">
-        <v>1158736</v>
+        <v>1213423</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>888</v>
+        <v>902</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>889</v>
+        <v>903</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>890</v>
+        <v>904</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -14149,7 +14218,7 @@
         <v>599</v>
       </c>
       <c r="D45" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>58</v>
@@ -14164,7 +14233,7 @@
         <v>959</v>
       </c>
       <c r="I45" s="7">
-        <v>803287</v>
+        <v>848405</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>58</v>
@@ -14179,7 +14248,7 @@
         <v>1558</v>
       </c>
       <c r="N45" s="7">
-        <v>1431041</v>
+        <v>1472684</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>58</v>
@@ -14202,46 +14271,46 @@
         <v>3</v>
       </c>
       <c r="D46" s="7">
-        <v>2214</v>
+        <v>1917</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>514</v>
+        <v>467</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>485</v>
+        <v>12</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="H46" s="7">
         <v>10</v>
       </c>
       <c r="I46" s="7">
-        <v>14153</v>
+        <v>11146</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>298</v>
+        <v>119</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>114</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>891</v>
+        <v>207</v>
       </c>
       <c r="M46" s="7">
         <v>13</v>
       </c>
       <c r="N46" s="7">
-        <v>16368</v>
+        <v>13063</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>361</v>
+        <v>643</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>223</v>
+        <v>263</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>161</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -14253,28 +14322,28 @@
         <v>2</v>
       </c>
       <c r="D47" s="7">
-        <v>1928</v>
+        <v>1662</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>643</v>
+        <v>557</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>148</v>
+        <v>262</v>
       </c>
       <c r="H47" s="7">
         <v>6</v>
       </c>
       <c r="I47" s="7">
-        <v>4706</v>
+        <v>3930</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>356</v>
+        <v>537</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>643</v>
+        <v>149</v>
       </c>
       <c r="L47" s="7" t="s">
         <v>125</v>
@@ -14283,16 +14352,16 @@
         <v>8</v>
       </c>
       <c r="N47" s="7">
-        <v>6634</v>
+        <v>5592</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>26</v>
+        <v>263</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>539</v>
+        <v>295</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>148</v>
+        <v>258</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -14304,46 +14373,46 @@
         <v>12</v>
       </c>
       <c r="D48" s="7">
-        <v>12504</v>
+        <v>10561</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>261</v>
+        <v>384</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>219</v>
+        <v>443</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>892</v>
+        <v>81</v>
       </c>
       <c r="H48" s="7">
         <v>24</v>
       </c>
       <c r="I48" s="7">
-        <v>19069</v>
+        <v>15749</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>565</v>
+        <v>581</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>825</v>
+        <v>607</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>225</v>
+        <v>126</v>
       </c>
       <c r="M48" s="7">
         <v>36</v>
       </c>
       <c r="N48" s="7">
-        <v>31572</v>
+        <v>26310</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>391</v>
+        <v>13</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>444</v>
+        <v>390</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -14355,46 +14424,46 @@
         <v>56</v>
       </c>
       <c r="D49" s="7">
-        <v>57962</v>
+        <v>49001</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>893</v>
+        <v>699</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>894</v>
+        <v>386</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>895</v>
+        <v>905</v>
       </c>
       <c r="H49" s="7">
         <v>103</v>
       </c>
       <c r="I49" s="7">
-        <v>77600</v>
+        <v>64603</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>896</v>
+        <v>906</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>684</v>
+        <v>234</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>897</v>
+        <v>907</v>
       </c>
       <c r="M49" s="7">
         <v>159</v>
       </c>
       <c r="N49" s="7">
-        <v>135562</v>
+        <v>113604</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>760</v>
+        <v>908</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>898</v>
+        <v>373</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>686</v>
+        <v>909</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -14406,46 +14475,46 @@
         <v>689</v>
       </c>
       <c r="D50" s="7">
-        <v>784820</v>
+        <v>865579</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>557</v>
+        <v>910</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>410</v>
+        <v>911</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>384</v>
+        <v>912</v>
       </c>
       <c r="H50" s="7">
         <v>918</v>
       </c>
       <c r="I50" s="7">
-        <v>752105</v>
+        <v>621624</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>899</v>
+        <v>913</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>900</v>
+        <v>914</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>288</v>
+        <v>597</v>
       </c>
       <c r="M50" s="7">
         <v>1607</v>
       </c>
       <c r="N50" s="7">
-        <v>1536925</v>
+        <v>1487203</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>901</v>
+        <v>915</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>902</v>
+        <v>407</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>556</v>
+        <v>916</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -14457,7 +14526,7 @@
         <v>762</v>
       </c>
       <c r="D51" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>58</v>
@@ -14472,7 +14541,7 @@
         <v>1061</v>
       </c>
       <c r="I51" s="7">
-        <v>867633</v>
+        <v>717052</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>58</v>
@@ -14487,7 +14556,7 @@
         <v>1823</v>
       </c>
       <c r="N51" s="7">
-        <v>1727061</v>
+        <v>1645772</v>
       </c>
       <c r="O51" s="7" t="s">
         <v>58</v>
@@ -14510,46 +14579,46 @@
         <v>36</v>
       </c>
       <c r="D52" s="7">
-        <v>38110</v>
+        <v>40105</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>25</v>
+        <v>532</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>903</v>
+        <v>486</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>659</v>
+        <v>226</v>
       </c>
       <c r="H52" s="7">
         <v>69</v>
       </c>
       <c r="I52" s="7">
-        <v>54260</v>
+        <v>49117</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>904</v>
+        <v>71</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>629</v>
+        <v>556</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>628</v>
+        <v>185</v>
       </c>
       <c r="M52" s="7">
         <v>105</v>
       </c>
       <c r="N52" s="7">
-        <v>92370</v>
+        <v>89221</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>444</v>
+        <v>74</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>905</v>
+        <v>587</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -14561,46 +14630,46 @@
         <v>27</v>
       </c>
       <c r="D53" s="7">
-        <v>21693</v>
+        <v>20938</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>61</v>
+        <v>267</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>223</v>
+        <v>26</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>199</v>
+        <v>554</v>
       </c>
       <c r="H53" s="7">
         <v>63</v>
       </c>
       <c r="I53" s="7">
-        <v>59844</v>
+        <v>111043</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>718</v>
+        <v>396</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>67</v>
+        <v>506</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>86</v>
+        <v>917</v>
       </c>
       <c r="M53" s="7">
         <v>90</v>
       </c>
       <c r="N53" s="7">
-        <v>81537</v>
+        <v>131982</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>25</v>
+        <v>918</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>296</v>
+        <v>14</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>906</v>
+        <v>919</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -14612,46 +14681,46 @@
         <v>133</v>
       </c>
       <c r="D54" s="7">
-        <v>138065</v>
+        <v>134555</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>787</v>
+        <v>920</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>543</v>
+        <v>921</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>233</v>
+        <v>922</v>
       </c>
       <c r="H54" s="7">
         <v>234</v>
       </c>
       <c r="I54" s="7">
-        <v>166989</v>
+        <v>154201</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>907</v>
+        <v>629</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>65</v>
+        <v>158</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>908</v>
+        <v>660</v>
       </c>
       <c r="M54" s="7">
         <v>367</v>
       </c>
       <c r="N54" s="7">
-        <v>305054</v>
+        <v>288756</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>909</v>
+        <v>923</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>204</v>
+        <v>126</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>910</v>
+        <v>516</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -14663,46 +14732,46 @@
         <v>379</v>
       </c>
       <c r="D55" s="7">
-        <v>370312</v>
+        <v>355328</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>911</v>
+        <v>924</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>912</v>
+        <v>925</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>913</v>
+        <v>245</v>
       </c>
       <c r="H55" s="7">
         <v>651</v>
       </c>
       <c r="I55" s="7">
-        <v>424493</v>
+        <v>389512</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>914</v>
+        <v>780</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>915</v>
+        <v>926</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>916</v>
+        <v>927</v>
       </c>
       <c r="M55" s="7">
         <v>1030</v>
       </c>
       <c r="N55" s="7">
-        <v>794806</v>
+        <v>744840</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>917</v>
+        <v>928</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>918</v>
+        <v>929</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>919</v>
+        <v>930</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -14714,46 +14783,46 @@
         <v>2801</v>
       </c>
       <c r="D56" s="7">
-        <v>2817048</v>
+        <v>2908892</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>920</v>
+        <v>931</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>921</v>
+        <v>932</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>922</v>
+        <v>933</v>
       </c>
       <c r="H56" s="7">
         <v>4344</v>
       </c>
       <c r="I56" s="7">
-        <v>3100261</v>
+        <v>2956362</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>923</v>
+        <v>934</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>924</v>
+        <v>935</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>925</v>
+        <v>936</v>
       </c>
       <c r="M56" s="7">
         <v>7145</v>
       </c>
       <c r="N56" s="7">
-        <v>5917308</v>
+        <v>5865253</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>926</v>
+        <v>937</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>927</v>
+        <v>938</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>928</v>
+        <v>939</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -14765,7 +14834,7 @@
         <v>3376</v>
       </c>
       <c r="D57" s="7">
-        <v>3385228</v>
+        <v>3459817</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>58</v>
@@ -14780,7 +14849,7 @@
         <v>5361</v>
       </c>
       <c r="I57" s="7">
-        <v>3805847</v>
+        <v>3660235</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>58</v>
@@ -14795,7 +14864,7 @@
         <v>8737</v>
       </c>
       <c r="N57" s="7">
-        <v>7191074</v>
+        <v>7120052</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>58</v>
